--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -158,13 +158,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -278,13 +278,13 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -391,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="AG4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2212,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3678,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4102,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4299,19 +4299,19 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="0">
         <v>1</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="0">
         <v>1</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>1</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -5186,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5356,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5908,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
       </c>
       <c r="AG30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="0">
         <v>0</v>
@@ -6807,13 +6807,13 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7109,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>1</v>
@@ -7655,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
       </c>
       <c r="AN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="0">
         <v>0</v>
@@ -8270,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="0">
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>1</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="0">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="0">
         <v>1</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
         <v>1</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>1</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>0</v>
       </c>
       <c r="BK48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10008,10 +10008,10 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10927,13 +10927,13 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
       </c>
       <c r="AF53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11017,13 +11017,13 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11184,13 +11184,13 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,10 +11211,10 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>1</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11679,16 +11679,16 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="BB57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="0">
         <v>1</v>
@@ -11835,13 +11835,13 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="0">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12450,19 +12450,19 @@
         <v>0</v>
       </c>
       <c r="BE60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12602,10 +12602,10 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12715,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12790,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="AG62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>1</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="AV63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="0">
         <v>1</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13330,10 +13330,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>1</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13620,13 +13620,13 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13942,10 +13942,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0.95690985494037928</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>1</v>
+        <v>0.69316183565096778</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0.61985945480376847</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -278,13 +278,13 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>1</v>
+        <v>0.98433942637759664</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>1</v>
+        <v>0.63238974420440841</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.75260813441963514</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0.72072965909210329</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0.59246547643864533</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0.62811558786603228</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0.80258167972251249</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0.76345798019658084</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.68386445437095877</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>1</v>
+        <v>0.6149342684510436</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0.67229327639129755</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="0">
-        <v>1</v>
+        <v>0.95469166287526086</v>
       </c>
       <c r="AH4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>1</v>
+        <v>0.91933216460947631</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.88326473884509982</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>1</v>
+        <v>0.80009068185504184</v>
       </c>
     </row>
     <row r="6">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.67752855301384818</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0.60630877821746909</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0.51468603331710927</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0.92771599813516259</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>1</v>
+        <v>0.8130053690313841</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0.62933927662447808</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>1</v>
+        <v>0.94786956920466614</v>
       </c>
     </row>
     <row r="7">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="0">
-        <v>1</v>
+        <v>0.76495589797256924</v>
       </c>
       <c r="AF7" s="0">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>1</v>
+        <v>0.52215408291971577</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>1</v>
+        <v>0.86294856075762683</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>1</v>
+        <v>0.80694364384154738</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>1</v>
+        <v>0.52169462464166494</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>1</v>
+        <v>0.9688787403338639</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0.54269960923627791</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0.68784012434306141</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.60740234934435067</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>1</v>
+        <v>0.53845202540423176</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>1</v>
+        <v>0.86159846851612754</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0.6246009803620407</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>1</v>
+        <v>0.84497474179232823</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>1</v>
+        <v>0.61807592779928</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>1</v>
+        <v>0.63685312678698947</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.65746289149034975</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.56138611387544524</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>1</v>
+        <v>0.89262345172684721</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0.59883816617705787</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.55111193157624871</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0.72516483132712084</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0.88649211384038329</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>1</v>
+        <v>0.62988597218356202</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>1</v>
+        <v>0.83698554600281883</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>1</v>
+        <v>0.91549816795919281</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.86925743030850611</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>1</v>
+        <v>0.54416775001662887</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>1</v>
+        <v>0.80463991625808529</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>1</v>
+        <v>0.67637068469460404</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>1</v>
+        <v>0.51867196091633949</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.91740445972377649</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0.57070444663071918</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>1</v>
+        <v>0.52648313991274986</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0.88708640535412697</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>1</v>
+        <v>0.5313290602735028</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0.88412997211609379</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>1</v>
+        <v>0.918174679060211</v>
       </c>
       <c r="I17" s="0">
-        <v>1</v>
+        <v>0.84773501742615665</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0.7354661355896237</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>1</v>
+        <v>0.96955834656204953</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>1</v>
+        <v>0.8991713357900335</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>1</v>
+        <v>0.84657367085622282</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0.59153832991687483</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>1</v>
+        <v>0.82525297895195693</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="0">
-        <v>1</v>
+        <v>0.91670249082597</v>
       </c>
       <c r="Q19" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>1</v>
+        <v>0.59324982760698775</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>1</v>
+        <v>0.7414209176214448</v>
       </c>
       <c r="BN19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>1</v>
+        <v>0.89229586056404298</v>
       </c>
     </row>
     <row r="20">
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>0.82428264044146615</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.83408972762578459</v>
       </c>
       <c r="W20" s="0">
-        <v>1</v>
+        <v>0.6088347985218534</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>1</v>
+        <v>0.80093533050590471</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0.93877393174646895</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.5594907407245463</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>1</v>
+        <v>0.61999194761261855</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.89927707136243873</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.99850965438256356</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>1</v>
+        <v>0.63580570980232465</v>
       </c>
       <c r="AR22" s="0">
-        <v>1</v>
+        <v>0.95993916944724855</v>
       </c>
       <c r="AS22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0.85800996884594705</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4717,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>1</v>
+        <v>0.64054706970900266</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.99734986394956804</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>1</v>
+        <v>0.95908520810961184</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>1</v>
+        <v>0.9227183287470696</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>1</v>
+        <v>0.70922902305980062</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.72789652578344732</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>1</v>
+        <v>0.62984109754040296</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>1</v>
+        <v>0.79396587518027251</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
@@ -5186,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>1</v>
+        <v>0.84087661991869145</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>1</v>
+        <v>0.72641786645862716</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>1</v>
+        <v>0.76034028781834673</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0.93088419505571562</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>1</v>
+        <v>0.82283512426622374</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="0">
-        <v>1</v>
+        <v>0.63956056317957966</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>1</v>
+        <v>0.68332753841195237</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0.86906455607161548</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>1</v>
+        <v>0.62116705704821273</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="0">
-        <v>1</v>
+        <v>0.89860629356920518</v>
       </c>
       <c r="AH27" s="0">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>1</v>
+        <v>0.92326450030134777</v>
       </c>
       <c r="BE27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>1</v>
+        <v>0.57983074589084938</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>1</v>
+        <v>0.77542884303300719</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.63443968560908881</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0.84602676093977425</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1</v>
+        <v>0.60486212088501956</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>1</v>
+        <v>0.57555811608005247</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>1</v>
+        <v>0.60579591332768756</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0.98916753483097264</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0.85551625414070909</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>1</v>
+        <v>0.72585122791354495</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.98840462531431528</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0.92583067579656131</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>1</v>
+        <v>0.67121790144119076</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>1</v>
+        <v>0.78929078187219037</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>1</v>
+        <v>0.76881603849693336</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.80862069463297614</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>1</v>
+        <v>0.91490820171600862</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>1</v>
+        <v>0.5042648895152142</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="0">
-        <v>1</v>
+        <v>0.9205474264493021</v>
       </c>
       <c r="AB33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.6225278845751655</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>1</v>
+        <v>0.65748730327194727</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0.7273323702304636</v>
       </c>
       <c r="AV34" s="0">
-        <v>1</v>
+        <v>0.97491522085995186</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>1</v>
+        <v>0.63738709448642572</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>1</v>
+        <v>0.88108319337708685</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0.51681678888647087</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0.51483581700988934</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0.63594335259950463</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.63403051218526785</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0.89834601505221834</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7571,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>1</v>
+        <v>0.881506940997969</v>
       </c>
       <c r="K37" s="0">
-        <v>1</v>
+        <v>0.98744276656462193</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.52116947904701694</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>1</v>
+        <v>0.99500461043170962</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0.584657110365707</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0.52158032908315355</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="0">
-        <v>1</v>
+        <v>0.80250584074073883</v>
       </c>
       <c r="V38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>1</v>
+        <v>0.71713183421124427</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>1</v>
+        <v>0.68352729528287282</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0.67965653794501413</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>1</v>
+        <v>0.55426936376596325</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="AU39" s="0">
-        <v>1</v>
+        <v>0.71096343048941446</v>
       </c>
       <c r="AV39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0.65342912384962881</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>1</v>
+        <v>0.85543132098001728</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.55780936821625948</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>1</v>
+        <v>0.89818213089559662</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>1</v>
+        <v>0.68975880823185998</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>1</v>
+        <v>0.94899645336515182</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.86026205006888645</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.86954398621813223</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0.92371305388975877</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0.62461609580740518</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.70106933468869181</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0.96442455386966741</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>1</v>
+        <v>0.92312751556160033</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>0.97632734518115316</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.85576223335153534</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.99449564197577711</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>1</v>
+        <v>0.57008120583449617</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="0">
-        <v>1</v>
+        <v>0.65296241830423885</v>
       </c>
       <c r="W44" s="0">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.66210874358330374</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.59759886785624294</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.75552372794171929</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>1</v>
+        <v>0.56011807254675239</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>1</v>
+        <v>0.6258997298861827</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.82625584525566687</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1</v>
+        <v>0.86531601242195566</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.50521581413460903</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.99260261616495926</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="AY46" s="0">
-        <v>1</v>
+        <v>0.91434726012884426</v>
       </c>
       <c r="AZ46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>1</v>
+        <v>0.66631791309792809</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0.87464447294438918</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>1</v>
+        <v>0.56738974083162075</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.81148141624614034</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>1</v>
+        <v>0.76617013000726875</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0.56885797212975875</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>1</v>
+        <v>0.85946098675496763</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.73358589951130382</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>1</v>
+        <v>0.55139416333282854</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>1</v>
+        <v>0.65317219771886503</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10008,7 +10008,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="0">
-        <v>1</v>
+        <v>0.71785746411106055</v>
       </c>
       <c r="BP48" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0.72223394444141209</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>1</v>
+        <v>0.68132348476578031</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>1</v>
+        <v>0.66384673229288005</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>1</v>
+        <v>0.52212454163345123</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AL50" s="0">
-        <v>1</v>
+        <v>0.95526535169703819</v>
       </c>
       <c r="AM50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0.5052888384641403</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.72098263271285168</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>1</v>
+        <v>0.61325298889363633</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1</v>
+        <v>0.6079783049655767</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>1</v>
+        <v>0.61713398614271076</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.59352738972667041</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0.85377642925819819</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10775,13 +10775,13 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>1</v>
+        <v>0.8648616443933097</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.82167331734015026</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>1</v>
+        <v>0.77366998178157398</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>0.90284238102449921</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10927,13 +10927,13 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0.95656455500286874</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
       </c>
       <c r="AF53" s="0">
-        <v>1</v>
+        <v>0.52335706661982773</v>
       </c>
       <c r="AG53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.59954244769448795</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0.82385374146262025</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>1</v>
+        <v>0.79888285118565006</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>1</v>
+        <v>0.61219552436300995</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>1</v>
+        <v>0.99631264498601591</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11184,13 +11184,13 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>1</v>
+        <v>0.55485825624282581</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>1</v>
+        <v>0.89362242487768306</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0.95940569668025488</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>1</v>
+        <v>0.93426710274319102</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0.97245828478223217</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>1</v>
+        <v>0.60802828009339283</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.64636133193809753</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1</v>
+        <v>0.57369478232134152</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>1</v>
+        <v>0.86150639483052061</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>1</v>
+        <v>0.53701660720333755</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11679,13 +11679,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0.958380338915507</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
       </c>
       <c r="H57" s="0">
-        <v>1</v>
+        <v>0.805096372645695</v>
       </c>
       <c r="I57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0.74531744757373519</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.79477306118386548</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="BH57" s="0">
-        <v>1</v>
+        <v>0.51910060265172353</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>1</v>
+        <v>0.58542566961273756</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0.70731775012144338</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>1</v>
+        <v>0.73916412738760273</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>1</v>
+        <v>0.64958350862731362</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0.61402259154695848</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="0">
-        <v>1</v>
+        <v>0.85401241498434033</v>
       </c>
       <c r="AB59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>1</v>
+        <v>0.98209845320894384</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>1</v>
+        <v>0.55855215746132225</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>1</v>
+        <v>0.51599580545836665</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1</v>
+        <v>0.83567764027839186</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12450,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="BE60" s="0">
-        <v>1</v>
+        <v>0.62760639110425886</v>
       </c>
       <c r="BF60" s="0">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>1</v>
+        <v>0.95678091457435499</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12602,10 +12602,10 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>1</v>
+        <v>0.9765504656458418</v>
       </c>
       <c r="AN61" s="0">
-        <v>1</v>
+        <v>0.72204500258382565</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.6495536603738894</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0.98562167002482015</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>1</v>
+        <v>0.84086917317112397</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12790,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="AG62" s="0">
-        <v>1</v>
+        <v>0.84451791304443358</v>
       </c>
       <c r="AH62" s="0">
-        <v>1</v>
+        <v>0.52474058180907568</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0.84151513735749284</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.86247258627892576</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.79690261211169511</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>1</v>
+        <v>0.60071912215119116</v>
       </c>
     </row>
     <row r="63">
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0.5657075483364542</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.95452493736322075</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0.67128569060069077</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13145,10 +13145,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1</v>
+        <v>0.8009831671377281</v>
       </c>
       <c r="O64" s="0">
-        <v>1</v>
+        <v>0.70764503488811448</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>1</v>
+        <v>0.6628546457426896</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0.57128728776580728</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.68229120082675077</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.64673813746079534</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.7174543367874705</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>1</v>
+        <v>0.93295248560825716</v>
       </c>
       <c r="H65" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>1</v>
+        <v>0.50700371382214071</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>1</v>
+        <v>0.50302001257475382</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>1</v>
+        <v>0.6093800056186004</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.60810663502515383</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0.95621432154440011</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>1</v>
+        <v>0.62577664986808967</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13620,13 +13620,13 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0.93734824790173199</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0.66483727359160971</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>1</v>
+        <v>0.97643321640431768</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>1</v>
+        <v>0.54076455891655617</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>1</v>
+        <v>0.87672626743772686</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13942,10 +13942,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>1</v>
+        <v>0.56653173963400416</v>
       </c>
       <c r="F68" s="0">
-        <v>1</v>
+        <v>0.97346520613461274</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>1</v>
+        <v>0.81188911454575297</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>1</v>
+        <v>0.58856798639837082</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject1.xlsx
@@ -60,7 +60,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
@@ -69,7 +69,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.61985945480376847</v>
+        <v>0.63594335259950463</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0.63238974420440841</v>
+        <v>0.90284238102449921</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.72072965909210329</v>
+        <v>0.76034028781834673</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.59246547643864533</v>
+        <v>0.88412997211609379</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0.76345798019658084</v>
+        <v>0.95621432154440011</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.68386445437095877</v>
+        <v>0.75260813441963514</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.67229327639129755</v>
+        <v>0.86906455607161548</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="0">
-        <v>0.91933216460947631</v>
+        <v>0.93426710274319102</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.67752855301384818</v>
+        <v>0.88326473884509982</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0.60630877821746909</v>
+        <v>0.68784012434306141</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.51468603331710927</v>
+        <v>0.93088419505571562</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.62933927662447808</v>
+        <v>0.958380338915507</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0.94786956920466614</v>
+        <v>0.97346520613461274</v>
       </c>
     </row>
     <row r="7">
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>0.52215408291971577</v>
+        <v>0.55855215746132225</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0.86294856075762683</v>
+        <v>0.93295248560825716</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.80694364384154738</v>
+        <v>0.918174679060211</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="0">
-        <v>0.52169462464166494</v>
+        <v>0.805096372645695</v>
       </c>
       <c r="BF8" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0.54269960923627791</v>
+        <v>0.98562167002482015</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.60740234934435067</v>
+        <v>0.65746289149034975</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.53845202540423176</v>
+        <v>0.77542884303300719</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.86159846851612754</v>
+        <v>0.881506940997969</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6246009803620407</v>
+        <v>0.95690985494037928</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>0.63685312678698947</v>
+        <v>0.98744276656462193</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>0.59883816617705787</v>
+        <v>0.70731775012144338</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.55111193157624871</v>
+        <v>0.56138611387544524</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.72516483132712084</v>
+        <v>0.7354661355896237</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.86925743030850611</v>
+        <v>0.91740445972377649</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0.54416775001662887</v>
+        <v>0.70922902305980062</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>0.67637068469460404</v>
+        <v>0.70764503488811448</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0.51867196091633949</v>
+        <v>0.6149342684510436</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="0">
-        <v>0.57070444663071918</v>
+        <v>0.91670249082597</v>
       </c>
       <c r="T16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.52648313991274986</v>
+        <v>0.72585122791354495</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0.88708640535412697</v>
+        <v>0.96442455386966741</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>0.5313290602735028</v>
+        <v>0.61219552436300995</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0.918174679060211</v>
       </c>
       <c r="I17" s="0">
-        <v>0.84773501742615665</v>
+        <v>0.9688787403338639</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>0.59153832991687483</v>
+        <v>0.93877393174646895</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0.59324982760698775</v>
+        <v>0.92312751556160033</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0.82428264044146615</v>
+        <v>0.83698554600281883</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.83408972762578459</v>
+        <v>0.89927707136243873</v>
       </c>
       <c r="W20" s="0">
-        <v>0.6088347985218534</v>
+        <v>0.64054706970900266</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.5594907407245463</v>
+        <v>0.99734986394956804</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.61999194761261855</v>
+        <v>0.80250584074073883</v>
       </c>
       <c r="AM21" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.63580570980232465</v>
+        <v>0.97632734518115316</v>
       </c>
       <c r="AR22" s="0">
         <v>0.95993916944724855</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0.85800996884594705</v>
+        <v>0.88649211384038329</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.72789652578344732</v>
+        <v>0.99850965438256356</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0.72641786645862716</v>
+        <v>0.94899645336515182</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>0.82283512426622374</v>
+        <v>0.84497474179232823</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0.68332753841195237</v>
+        <v>0.84086917317112397</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>0.62116705704821273</v>
+        <v>0.62984109754040296</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="0">
-        <v>0.89860629356920518</v>
+        <v>0.9205474264493021</v>
       </c>
       <c r="AH27" s="0">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="0">
-        <v>0.57983074589084938</v>
+        <v>0.85401241498434033</v>
       </c>
       <c r="BH27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.63443968560908881</v>
+        <v>0.98840462531431528</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.60486212088501956</v>
+        <v>0.69316183565096778</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0.57555811608005247</v>
+        <v>0.61807592779928</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.60579591332768756</v>
+        <v>0.63956056317957966</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>0.92583067579656131</v>
+        <v>0.95656455500286874</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="0">
-        <v>0.67121790144119076</v>
+        <v>0.76495589797256924</v>
       </c>
       <c r="H31" s="0">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>0.78929078187219037</v>
+        <v>0.79396587518027251</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>0.5042648895152142</v>
+        <v>0.95469166287526086</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.6225278845751655</v>
+        <v>0.80862069463297614</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="0">
-        <v>0.65748730327194727</v>
+        <v>0.84451791304443358</v>
       </c>
       <c r="BK33" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0.7273323702304636</v>
+        <v>0.87464447294438918</v>
       </c>
       <c r="AV34" s="0">
         <v>0.97491522085995186</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>0.51681678888647087</v>
+        <v>0.74531744757373519</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.51483581700988934</v>
+        <v>0.93734824790173199</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.52116947904701694</v>
+        <v>0.63403051218526785</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0.584657110365707</v>
+        <v>0.66483727359160971</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>0.52158032908315355</v>
+        <v>0.62811558786603228</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AX38" s="0">
-        <v>0.71713183421124427</v>
+        <v>0.95526535169703819</v>
       </c>
       <c r="AY38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>0.68352729528287282</v>
+        <v>0.99631264498601591</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0.67965653794501413</v>
+        <v>0.80093533050590471</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0.55426936376596325</v>
+        <v>0.84087661991869145</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0.65342912384962881</v>
+        <v>0.97245828478223217</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0.85543132098001728</v>
+        <v>0.9765504656458418</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.55780936821625948</v>
+        <v>0.86026205006888645</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0.68975880823185998</v>
+        <v>0.72204500258382565</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.62461609580740518</v>
+        <v>0.92771599813516259</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.85576223335153534</v>
+        <v>0.86954398621813223</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>0.57008120583449617</v>
+        <v>0.82525297895195693</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="0">
-        <v>0.65296241830423885</v>
+        <v>0.95993916944724855</v>
       </c>
       <c r="W44" s="0">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.66210874358330374</v>
+        <v>0.70106933468869181</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.59759886785624294</v>
+        <v>0.99449564197577711</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.75552372794171929</v>
+        <v>0.82625584525566687</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0.56011807254675239</v>
+        <v>0.8130053690313841</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.6258997298861827</v>
+        <v>0.80463991625808529</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.86531601242195566</v>
+        <v>0.96955834656204953</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.50521581413460903</v>
+        <v>0.81148141624614034</v>
       </c>
       <c r="AV46" s="0">
         <v>0.99260261616495926</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0.66631791309792809</v>
+        <v>0.73916412738760273</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="0">
-        <v>0.56738974083162075</v>
+        <v>0.71096343048941446</v>
       </c>
       <c r="AN47" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.56885797212975875</v>
+        <v>0.84602676093977425</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0.85946098675496763</v>
+        <v>0.97491522085995186</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.73358589951130382</v>
+        <v>0.99260261616495926</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0.55139416333282854</v>
+        <v>0.8648616443933097</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0.65317219771886503</v>
+        <v>0.6628546457426896</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.72223394444141209</v>
+        <v>0.98916753483097264</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0.68132348476578031</v>
+        <v>0.89818213089559662</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0.66384673229288005</v>
+        <v>0.89362242487768306</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0.52212454163345123</v>
+        <v>0.63738709448642572</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>0.5052888384641403</v>
+        <v>0.92371305388975877</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.72098263271285168</v>
+        <v>0.82167331734015026</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.6079783049655767</v>
+        <v>0.98433942637759664</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="0">
-        <v>0.61713398614271076</v>
+        <v>0.91434726012884426</v>
       </c>
       <c r="AU51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.59352738972667041</v>
+        <v>0.59954244769448795</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0.85377642925819819</v>
+        <v>0.89834601505221834</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="0">
-        <v>0.52335706661982773</v>
+        <v>0.91490820171600862</v>
       </c>
       <c r="AG53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0.82385374146262025</v>
+        <v>0.84151513735749284</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0.79888285118565006</v>
+        <v>0.89262345172684721</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0.55485825624282581</v>
+        <v>0.76617013000726875</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0.60802828009339283</v>
+        <v>0.61325298889363633</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.64636133193809753</v>
+        <v>0.79477306118386548</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.57369478232134152</v>
+        <v>0.8991713357900335</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.86150639483052061</v>
+        <v>0.92326450030134777</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0.53701660720333755</v>
+        <v>0.76881603849693336</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="BH57" s="0">
-        <v>0.51910060265172353</v>
+        <v>0.62760639110425886</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>0.58542566961273756</v>
+        <v>0.97643321640431768</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>0.64958350862731362</v>
+        <v>0.87672626743772686</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>0.61402259154695848</v>
+        <v>0.95908520810961184</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>0.98209845320894384</v>
+        <v>0.99500461043170962</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>0.51599580545836665</v>
+        <v>0.62988597218356202</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.83567764027839186</v>
+        <v>0.84657367085622282</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.6495536603738894</v>
+        <v>0.86247258627892576</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0.84451791304443358</v>
       </c>
       <c r="AH62" s="0">
-        <v>0.52474058180907568</v>
+        <v>0.88108319337708685</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.5657075483364542</v>
+        <v>0.85551625414070909</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>0.67128569060069077</v>
+        <v>0.80258167972251249</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0.8009831671377281</v>
+        <v>0.91549816795919281</v>
       </c>
       <c r="O64" s="0">
         <v>0.70764503488811448</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>0.57128728776580728</v>
+        <v>0.95940569668025488</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.68229120082675077</v>
+        <v>0.79690261211169511</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.64673813746079534</v>
+        <v>0.95452493736322075</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>0.50700371382214071</v>
+        <v>0.7414209176214448</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>0.50302001257475382</v>
+        <v>0.77366998178157398</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0.6093800056186004</v>
+        <v>0.95678091457435499</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.60810663502515383</v>
+        <v>0.7174543367874705</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>0.62577664986808967</v>
+        <v>0.9227183287470696</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="AV67" s="0">
-        <v>0.54076455891655617</v>
+        <v>0.71785746411106055</v>
       </c>
       <c r="AW67" s="0">
         <v>0</v>
@@ -13942,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="0">
-        <v>0.56653173963400416</v>
+        <v>0.80009068185504184</v>
       </c>
       <c r="F68" s="0">
         <v>0.97346520613461274</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0">
-        <v>0.81188911454575297</v>
+        <v>0.89229586056404298</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0.58856798639837082</v>
+        <v>0.60071912215119116</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
